--- a/Daten/Bauprojekte/00_Bauprojekte_im_Bau_Original.xlsx
+++ b/Daten/Bauprojekte/00_Bauprojekte_im_Bau_Original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnygrafico/Documents/Jonnny/CAS-MAZ/MAZ-CAS-DJ18-19_Abschlussarbeit/Daten/Bauprojekte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242240A0-27AB-154D-83FD-8B288686C6C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F70BA-DE1C-374E-B8E1-EBC53D9B3E91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23680" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Im Bau" sheetId="5" r:id="rId1"/>
     <sheet name="Inhalt" sheetId="1" r:id="rId2"/>
-    <sheet name="Erläuterungen" sheetId="6" r:id="rId3"/>
+    <sheet name="Erläuterungen zur Auswertung" sheetId="6" r:id="rId3"/>
     <sheet name="Fertigerstellt" sheetId="2" r:id="rId4"/>
     <sheet name="Neu bewilligt" sheetId="3" r:id="rId5"/>
     <sheet name="Bewilligt" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -48,7 +48,7 @@
     <t>Erstellt am</t>
   </si>
   <si>
-    <t>23.01.2018</t>
+    <t>01.02.2019</t>
   </si>
   <si>
     <t>Inhalt</t>
@@ -295,15 +295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>302895</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -318,7 +318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="180976"/>
+          <a:off x="285750" y="190500"/>
           <a:ext cx="5884545" cy="695324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -508,9 +508,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1126,6 +1126,56 @@
         <v>2252621</v>
       </c>
       <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>105</v>
+      </c>
+      <c r="C21" s="8">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8">
+        <v>7674862</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2332400</v>
+      </c>
+      <c r="I21" s="8">
+        <v>441498</v>
+      </c>
+      <c r="J21" s="8">
+        <v>3168847</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1732117</v>
+      </c>
+      <c r="L21" s="8">
+        <v>6108147</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2951488</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>3156659</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1302,9 +1352,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1920,6 +1970,56 @@
         <v>697412</v>
       </c>
       <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8">
+        <v>31</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3144785</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1366489</v>
+      </c>
+      <c r="I21" s="8">
+        <v>361561</v>
+      </c>
+      <c r="J21" s="8">
+        <v>414272</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1002463</v>
+      </c>
+      <c r="L21" s="8">
+        <v>22777235</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1800536</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>587651</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1936,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2554,6 +2654,56 @@
         <v>1048697</v>
       </c>
       <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>215</v>
+      </c>
+      <c r="C21" s="8">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8">
+        <v>86</v>
+      </c>
+      <c r="E21" s="8">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8">
+        <v>79</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2926239</v>
+      </c>
+      <c r="H21" s="8">
+        <v>930867</v>
+      </c>
+      <c r="I21" s="8">
+        <v>454728</v>
+      </c>
+      <c r="J21" s="8">
+        <v>666001</v>
+      </c>
+      <c r="K21" s="8">
+        <v>874643</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2161219</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1219332</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>941887</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2570,7 +2720,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3191,6 +3341,56 @@
         <v>29</v>
       </c>
     </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3678782</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1377643</v>
+      </c>
+      <c r="I21" s="8">
+        <v>484436</v>
+      </c>
+      <c r="J21" s="8">
+        <v>920381</v>
+      </c>
+      <c r="K21" s="8">
+        <v>896322</v>
+      </c>
+      <c r="L21" s="8">
+        <v>3051028</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1815231</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1235797</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B9:F9"/>
